--- a/qwe.xlsx
+++ b/qwe.xlsx
@@ -19,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>testtest</t>
+  </si>
+  <si>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -339,17 +345,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
